--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>6am-2pm</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Sumon</t>
-  </si>
-  <si>
-    <t>11.04.25</t>
   </si>
   <si>
     <t>01784917724</t>
@@ -82,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,13 +390,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
   </cols>
@@ -413,34 +412,34 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2">
+        <v>45965</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2">
+        <v>45965</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>6am-2pm</t>
-  </si>
-  <si>
     <t>Sopon</t>
   </si>
   <si>
@@ -31,9 +28,6 @@
     <t>01969750281</t>
   </si>
   <si>
-    <t>2pm-10am</t>
-  </si>
-  <si>
     <t>Alauddin</t>
   </si>
   <si>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>01649764654</t>
+  </si>
+  <si>
+    <t>6am - 2pm</t>
+  </si>
+  <si>
+    <t>2pm - 10am</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,42 +404,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2">
         <v>45965</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>45965</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -40,10 +40,10 @@
     <t>01649764654</t>
   </si>
   <si>
-    <t>6am - 2pm</t>
-  </si>
-  <si>
-    <t>2pm - 10am</t>
+    <t>6am-2pm</t>
+  </si>
+  <si>
+    <t>2pm-10pm</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sopon</t>
   </si>
@@ -40,10 +40,19 @@
     <t>01649764654</t>
   </si>
   <si>
-    <t>6am-2pm</t>
-  </si>
-  <si>
-    <t>2pm-10pm</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Aluddin</t>
+  </si>
+  <si>
+    <t>Ainal</t>
   </si>
 </sst>
 </file>
@@ -387,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +451,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -40,19 +40,19 @@
     <t>01649764654</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Aluddin</t>
   </si>
   <si>
     <t>Ainal</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Night</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -453,13 +453,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>45965</v>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sopon</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Night</t>
+  </si>
+  <si>
+    <t>01964565465</t>
+  </si>
+  <si>
+    <t>01649764655</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>45965</v>
+        <v>45758</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -442,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>45965</v>
+        <v>45758</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -462,7 +468,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>45965</v>
+        <v>45758</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Sopon</t>
   </si>
@@ -59,6 +59,39 @@
   </si>
   <si>
     <t>01649764655</t>
+  </si>
+  <si>
+    <t>Shaon</t>
+  </si>
+  <si>
+    <t>Faruk</t>
+  </si>
+  <si>
+    <t>Selim</t>
+  </si>
+  <si>
+    <t>0164567564</t>
+  </si>
+  <si>
+    <t>0164576654</t>
+  </si>
+  <si>
+    <t>Rofik</t>
+  </si>
+  <si>
+    <t>0154764797</t>
+  </si>
+  <si>
+    <t>Moin</t>
+  </si>
+  <si>
+    <t>0154676341</t>
+  </si>
+  <si>
+    <t>0146674647</t>
+  </si>
+  <si>
+    <t>0157866344</t>
   </si>
 </sst>
 </file>
@@ -94,10 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,79 +440,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45758</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45758</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <v>45758</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
